--- a/files/output_page_split.xlsx
+++ b/files/output_page_split.xlsx
@@ -479,7 +479,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>NET-33-06-12</t>
+          <t>NET-33-06-20</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -489,7 +489,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Ø261 x 23.6mm</t>
+          <t>Ø325 x 110mm</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -509,17 +509,17 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>"Part Number - Can be found on the middle right position of the page"</t>
+          <t>"Duxford Range - Can be found on the right side of the page"</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>NET-33-06-32</t>
+          <t>NET-33-06-30</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -533,17 +533,17 @@
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr">
         <is>
-          <t>"Part Number - Can be found on the middle right position of the page"</t>
+          <t>"Duxford Range - Can be found on the right side of the page"</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>NET-33-06-16</t>
+          <t>NET-33-06-24</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -565,17 +565,17 @@
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
         <is>
-          <t>"Part Number - Can be found on the middle right position of the page"</t>
+          <t>"Duxford Range - Can be found on the right side of the page"</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>NET-33-06-36</t>
+          <t>NET-33-06-34</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -589,17 +589,17 @@
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr">
         <is>
-          <t>"Part Number - Can be found on the middle right position of the page"</t>
+          <t>"Duxford Range - Can be found on the right side of the page"</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>NET-33-06-72</t>
+          <t>NET-33-06-70</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -621,17 +621,17 @@
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr">
         <is>
-          <t>"Part Number - Can be found on the middle right position of the page"</t>
+          <t>"Duxford Range - Can be found on the right side of the page"</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>NET-33-06-73</t>
+          <t>NET-33-06-71</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -645,17 +645,17 @@
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr">
         <is>
-          <t>"Part Number - Can be found on the middle right position of the page"</t>
+          <t>"Duxford Range - Can be found on the right side of the page"</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>NET-33-06-78</t>
+          <t>NET-33-06-48</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -677,17 +677,17 @@
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr">
         <is>
-          <t>"Part Number - Can be found on the middle right position of the page"</t>
+          <t>"Duxford Range - Can be found on the right side of the page"</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>NET-33-06-79</t>
+          <t>NET-33-06-49</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -701,17 +701,17 @@
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr">
         <is>
-          <t>"Part Number - Can be found on the middle right position of the page"</t>
+          <t>"Duxford Range - Can be found on the right side of the page"</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>NET-33-06-03</t>
+          <t>NET-33-06-40</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -721,7 +721,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Ø261 x 23.6mm</t>
+          <t>Ø325 x 110mm</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -741,17 +741,17 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>"Part Number - Can be found on the middle right position of the page"</t>
+          <t>"Duxford Range - Can be found on the right side of the page"</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>NET-33-06-05</t>
+          <t>NET-33-06-42</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -765,17 +765,17 @@
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr">
         <is>
-          <t>"Part Number - Can be found on the middle right position of the page"</t>
+          <t>"Duxford Range - Can be found on the right side of the page"</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>NET-33-06-07</t>
+          <t>NET-33-06-44</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -797,17 +797,17 @@
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr">
         <is>
-          <t>"Part Number - Can be found on the middle right position of the page"</t>
+          <t>"Duxford Range - Can be found on the right side of the page"</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>NET-33-06-09</t>
+          <t>NET-33-06-46</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -821,11 +821,11 @@
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr">
         <is>
-          <t>"Part Number - Can be found on the middle right position of the page"</t>
+          <t>"Duxford Range - Can be found on the right side of the page"</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -839,409 +839,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Part Number</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Dimensions</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Power</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Lumens</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Colour Temp.</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>table_header_descriptor</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>page_number</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>NET-33-06-20</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Standard</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Ø325 x 110mm</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>12W/14W/16W/18W</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>1200lm/1400lm/1600lm/1800lm</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3000K/4000K/5500K</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>"Part Number, Description, Dimensions, Power, Lumens, Colour Temp. - Can be found on the top right position of the page"</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>NET-33-06-30</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Emergency/Self Test</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>"Part Number, Description, Dimensions, Power, Lumens, Colour Temp. - Can be found on the top right position of the page"</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>NET-33-06-24</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Microwave Sensor</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>16W</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>1600lm</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>"Part Number, Description, Dimensions, Power, Lumens, Colour Temp. - Can be found on the top right position of the page"</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>NET-33-06-34</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Microwave Sensor Emergency/Self Test</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>"Part Number, Description, Dimensions, Power, Lumens, Colour Temp. - Can be found on the top right position of the page"</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>NET-33-06-70</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Photocell</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>12W/14W/16W/18W</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>1200lm/1400lm/1600lm/1800lm</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>"Part Number, Description, Dimensions, Power, Lumens, Colour Temp. - Can be found on the top right position of the page"</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>NET-33-06-71</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Photocell Emergency/Self Test</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>"Part Number, Description, Dimensions, Power, Lumens, Colour Temp. - Can be found on the top right position of the page"</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>NET-33-06-48</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Photocell Microwave Sensor</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>16W</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>1600lm</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>"Part Number, Description, Dimensions, Power, Lumens, Colour Temp. - Can be found on the top right position of the page"</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>NET-33-06-49</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Photocell Microwave Sensor Emergency/Self Test</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>"Part Number, Description, Dimensions, Power, Lumens, Colour Temp. - Can be found on the top right position of the page"</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>NET-33-06-40</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Standard</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Ø325 x 110mm</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>12W/14W/16W/18W</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>1200lm/1400lm/1600lm/1800lm</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>4000K</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>"Part Number, Description, Dimensions, Power, Lumens, Colour Temp. - Can be found on the top right position of the page"</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>NET-33-06-42</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Emergency/Self Test</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>"Part Number, Description, Dimensions, Power, Lumens, Colour Temp. - Can be found on the top right position of the page"</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>NET-33-06-44</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Microwave Sensor</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>16W</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>1600lm</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>"Part Number, Description, Dimensions, Power, Lumens, Colour Temp. - Can be found on the top right position of the page"</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>NET-33-06-46</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Microwave Sensor Emergency/Self Test</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>"Part Number, Description, Dimensions, Power, Lumens, Colour Temp. - Can be found on the top right position of the page"</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>